--- a/server/public/arrangeResultExcelTemplate/result.xlsx
+++ b/server/public/arrangeResultExcelTemplate/result.xlsx
@@ -387,7 +387,7 @@
         <v>4781</v>
       </c>
       <c r="B1" t="str">
-        <v>尹阳</v>
+        <v>何传杰</v>
       </c>
     </row>
     <row r="2">
@@ -395,7 +395,7 @@
         <v>4816</v>
       </c>
       <c r="B2" t="str">
-        <v>尹阳</v>
+        <v>何传杰</v>
       </c>
     </row>
     <row r="3">
@@ -403,7 +403,7 @@
         <v>4838</v>
       </c>
       <c r="B3" t="str">
-        <v>尹阳</v>
+        <v>何传杰</v>
       </c>
     </row>
     <row r="4">
@@ -411,7 +411,7 @@
         <v>4841</v>
       </c>
       <c r="B4" t="str">
-        <v>尹阳</v>
+        <v>何传杰</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>4855</v>
       </c>
       <c r="B5" t="str">
-        <v>尹阳</v>
+        <v>何传杰</v>
       </c>
     </row>
     <row r="6">
@@ -427,7 +427,7 @@
         <v>4859</v>
       </c>
       <c r="B6" t="str">
-        <v>尹阳</v>
+        <v>何传杰</v>
       </c>
     </row>
     <row r="7">
@@ -435,7 +435,7 @@
         <v>4860</v>
       </c>
       <c r="B7" t="str">
-        <v>尹阳</v>
+        <v>何传杰</v>
       </c>
     </row>
     <row r="8">
@@ -443,7 +443,7 @@
         <v>4861</v>
       </c>
       <c r="B8" t="str">
-        <v>尹阳</v>
+        <v>何传杰</v>
       </c>
     </row>
     <row r="9">
@@ -451,7 +451,7 @@
         <v>4862</v>
       </c>
       <c r="B9" t="str">
-        <v>尹阳</v>
+        <v>何传杰</v>
       </c>
     </row>
     <row r="10">
@@ -459,7 +459,7 @@
         <v>4863</v>
       </c>
       <c r="B10" t="str">
-        <v>尹阳</v>
+        <v>何传杰</v>
       </c>
     </row>
     <row r="11">
@@ -467,7 +467,7 @@
         <v>4864</v>
       </c>
       <c r="B11" t="str">
-        <v>尹阳</v>
+        <v>何传杰</v>
       </c>
     </row>
     <row r="12">
@@ -475,7 +475,7 @@
         <v>4865</v>
       </c>
       <c r="B12" t="str">
-        <v>尹阳</v>
+        <v>何传杰</v>
       </c>
     </row>
     <row r="13">
@@ -483,7 +483,7 @@
         <v>4866</v>
       </c>
       <c r="B13" t="str">
-        <v>尹阳</v>
+        <v>何传杰</v>
       </c>
     </row>
     <row r="14">
@@ -491,7 +491,7 @@
         <v>4867</v>
       </c>
       <c r="B14" t="str">
-        <v>尹阳</v>
+        <v>何传杰</v>
       </c>
     </row>
     <row r="15">
@@ -499,7 +499,7 @@
         <v>4868</v>
       </c>
       <c r="B15" t="str">
-        <v>尹阳</v>
+        <v>何传杰</v>
       </c>
     </row>
     <row r="16">
@@ -507,7 +507,7 @@
         <v>4869</v>
       </c>
       <c r="B16" t="str">
-        <v>尹阳</v>
+        <v>何传杰</v>
       </c>
     </row>
     <row r="17">
@@ -515,7 +515,7 @@
         <v>4870</v>
       </c>
       <c r="B17" t="str">
-        <v>尹阳</v>
+        <v>何传杰</v>
       </c>
     </row>
     <row r="18">
@@ -523,7 +523,7 @@
         <v>4871</v>
       </c>
       <c r="B18" t="str">
-        <v>尹阳</v>
+        <v>何传杰</v>
       </c>
     </row>
     <row r="19">
@@ -531,7 +531,7 @@
         <v>4873</v>
       </c>
       <c r="B19" t="str">
-        <v>尹阳</v>
+        <v>何传杰</v>
       </c>
     </row>
     <row r="20">
@@ -539,7 +539,7 @@
         <v>4874</v>
       </c>
       <c r="B20" t="str">
-        <v>尹阳</v>
+        <v>何传杰</v>
       </c>
     </row>
     <row r="21">
@@ -547,7 +547,7 @@
         <v>4876</v>
       </c>
       <c r="B21" t="str">
-        <v>尹阳</v>
+        <v>何传杰</v>
       </c>
     </row>
     <row r="22">
@@ -555,7 +555,7 @@
         <v>4877</v>
       </c>
       <c r="B22" t="str">
-        <v>尹阳</v>
+        <v>何传杰</v>
       </c>
     </row>
   </sheetData>
